--- a/documentação/backlog.xlsx
+++ b/documentação/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb9df5b836737798/Área de Trabalho/sptech - 1° semestre/projeto individual/projeto-individual/documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{88CE0079-9FCC-4D8A-BD96-6A418F6B34C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{FE746769-774F-4BC0-876D-A008F9C99A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Backlog</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Concluído</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>Documentar e versionar o projeto pelo GitHub</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Página informativa que apresenta a identidade e o propósito do projeto</t>
+  </si>
+  <si>
+    <t>Subir site inteiro na VM Lubuntu</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -550,9 +550,6 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +559,9 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,9 +578,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -931,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>7</v>
@@ -1031,7 +1028,7 @@
       <c r="G4" s="18">
         <v>45623</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1"/>
@@ -1040,10 +1037,10 @@
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1058,8 +1055,8 @@
       <c r="G5" s="18">
         <v>45623</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>26</v>
+      <c r="H5" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1067,10 +1064,10 @@
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1085,7 +1082,7 @@
       <c r="G6" s="18">
         <v>45623</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="1"/>
@@ -1094,10 +1091,10 @@
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1112,19 +1109,19 @@
       <c r="G7" s="18">
         <v>45623</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1139,19 +1136,19 @@
       <c r="G8" s="18">
         <v>45623</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>26</v>
+      <c r="H8" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -1166,19 +1163,19 @@
       <c r="G9" s="18">
         <v>45623</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>26</v>
+      <c r="H9" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1193,19 +1190,19 @@
       <c r="G10" s="18">
         <v>45623</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>26</v>
+      <c r="H10" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1220,26 +1217,26 @@
       <c r="G11" s="18">
         <v>45623</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>26</v>
+      <c r="H11" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -1247,8 +1244,8 @@
       <c r="G12" s="18">
         <v>45623</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>26</v>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1257,9 +1254,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1274,8 +1271,8 @@
       <c r="G13" s="18">
         <v>45623</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>26</v>
+      <c r="H13" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,9 +1280,9 @@
         <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1300,18 +1297,18 @@
       <c r="G14" s="18">
         <v>45623</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>26</v>
+      <c r="H14" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1323,21 +1320,21 @@
       <c r="F15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>45623</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>26</v>
+      <c r="H15" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1352,10 +1349,37 @@
       <c r="G16" s="18">
         <v>45623</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+      <c r="G17" s="18">
+        <v>45623</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1369,6 +1393,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1544,22 +1583,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1575,28 +1623,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentação/backlog.xlsx
+++ b/documentação/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb9df5b836737798/Área de Trabalho/sptech - 1° semestre/projeto individual/projeto-individual/documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FE746769-774F-4BC0-876D-A008F9C99A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{FE746769-774F-4BC0-876D-A008F9C99A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C990FC-0699-4151-B6CF-F3AB23D7CCA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
@@ -248,7 +248,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -523,61 +529,61 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,11 +597,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD1D1"/>
+      <color rgb="FFFFB7B7"/>
+      <color rgb="FFFFA1A1"/>
       <color rgb="FFFFCB3C"/>
       <color rgb="FFED7D1B"/>
       <color rgb="FFFF2970"/>
       <color rgb="FFFF0054"/>
-      <color rgb="FFFFA1A1"/>
       <color rgb="FF166C6A"/>
       <color rgb="FF1C8B88"/>
     </mruColors>
@@ -930,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,38 +950,38 @@
     <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" style="2" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1007,376 +1015,376 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="21">
         <v>45623</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="20">
         <v>5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="20">
         <v>1</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="21">
         <v>45623</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="20">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="21">
         <v>45623</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="20">
         <v>8</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="21">
         <v>45623</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="20">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="21">
         <v>45623</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="20">
         <v>8</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="20">
         <v>3</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="21">
         <v>45623</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="20">
         <v>8</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="20">
         <v>3</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="21">
         <v>45623</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="20">
         <v>13</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="20">
         <v>3</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="21">
         <v>45623</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="20">
         <v>13</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="21">
         <v>45623</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="20">
         <v>8</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="20">
         <v>3</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="21">
         <v>45623</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="20">
         <v>3</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="21">
         <v>45623</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="27">
         <v>21</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="27">
         <v>3</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="28">
         <v>45623</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="20">
         <v>3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="20">
         <v>3</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="21">
         <v>45623</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="20">
         <v>13</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="20">
         <v>3</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="21">
         <v>45623</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="1"/>
@@ -1393,21 +1401,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1583,31 +1576,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1623,4 +1607,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DA310-84F2-4927-88A1-2DC571106CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>